--- a/ProjectPlan.xlsx
+++ b/ProjectPlan.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop\PRN222\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Study\FPTU\SP25\PRN222\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{682169A4-8095-4D7D-9302-0D620E92EE44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F5C25E3-9F52-4722-9397-7002047FE215}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6090" yWindow="2535" windowWidth="21600" windowHeight="11295" xr2:uid="{F37AF37F-3A27-4D8A-A191-52380D4760DF}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{F37AF37F-3A27-4D8A-A191-52380D4760DF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -68,66 +68,15 @@
     <t>Mock Project - Day 3 - Review and update SRS</t>
   </si>
   <si>
-    <t>Mock Project - Day 4 - Database Design + Review Database Design</t>
-  </si>
-  <si>
-    <t>Mock Project - Day 5 - Create Blackbox Testcase</t>
-  </si>
-  <si>
-    <t>Mock Project - Day 6 - Review and update Blackbox TC</t>
-  </si>
-  <si>
-    <t>Mock Project - Day 7 - Coding</t>
-  </si>
-  <si>
-    <t>Mock Project - Day 8 - Coding</t>
-  </si>
-  <si>
     <t>Mock Project - Day 9 - Coding</t>
   </si>
   <si>
     <t>Mock Project - Day 10 - Coding</t>
   </si>
   <si>
-    <t>Mock Project - Day 11 - Review code + UT</t>
-  </si>
-  <si>
-    <t>Mock Project - Day 12 - UT</t>
-  </si>
-  <si>
-    <t>Mock Project - Day 13 - IT</t>
-  </si>
-  <si>
-    <t>Mock Project - Day 14 - IT + Create Test Report</t>
-  </si>
-  <si>
-    <t>Mock Project - Day 15 - Final Report</t>
-  </si>
-  <si>
-    <t>Mock Project - Day 16 - Final Report (cont)</t>
-  </si>
-  <si>
-    <t>Sum-up and Closing Ceremony</t>
-  </si>
-  <si>
     <t>08:00-10:00</t>
   </si>
   <si>
-    <t>Class Meeting 3</t>
-  </si>
-  <si>
-    <t>10:00-12:00</t>
-  </si>
-  <si>
-    <t>TOEIC Test 2</t>
-  </si>
-  <si>
-    <t>13:30-17:30</t>
-  </si>
-  <si>
-    <t>Re-test session 2 (For ASQL, ATXB)</t>
-  </si>
-  <si>
     <t>Tên đề tài:</t>
   </si>
   <si>
@@ -141,6 +90,57 @@
   </si>
   <si>
     <t>Đặng Quang Minh</t>
+  </si>
+  <si>
+    <t>Mock Project - Day 11 - Coding</t>
+  </si>
+  <si>
+    <t>Mock Project - Day 12 - Coding</t>
+  </si>
+  <si>
+    <t>Mock Project - Day 13 - Coding</t>
+  </si>
+  <si>
+    <t>Mock Project - Day 14 - Coding</t>
+  </si>
+  <si>
+    <t>Mock Project - Day 18 - IT + Create Test Report</t>
+  </si>
+  <si>
+    <t>Mock Project - Day 19 - Final Report</t>
+  </si>
+  <si>
+    <t>Mock Project - Day 4 - Review and update SRS</t>
+  </si>
+  <si>
+    <t>Mock Project - Day 5 - Database Design</t>
+  </si>
+  <si>
+    <t>Mock Project - Day 6 - Review Database Design</t>
+  </si>
+  <si>
+    <t>Mock Project - Day 7 - Create Blackbox Testcase</t>
+  </si>
+  <si>
+    <t>Mock Project - Day 8 - Review and update Blackbox TC</t>
+  </si>
+  <si>
+    <t>Mock Project - Day 20 - Final Report (cont)</t>
+  </si>
+  <si>
+    <t>12:30-14:45</t>
+  </si>
+  <si>
+    <t>15:00-17:15</t>
+  </si>
+  <si>
+    <t>Mock Project - Day 15 - Coding</t>
+  </si>
+  <si>
+    <t>Mock Project - Day 17 - Review code + UT</t>
+  </si>
+  <si>
+    <t>Mock Project - Day 16 - Coding</t>
   </si>
 </sst>
 </file>
@@ -150,18 +150,18 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="ddd\,\ dd\-mmm"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -169,12 +169,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
@@ -242,9 +236,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
@@ -255,17 +249,11 @@
     <xf numFmtId="16" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -606,38 +594,38 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39C9BE08-3ED2-4323-9945-AFBBED6A5948}">
   <dimension ref="A1:E29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="13.875" customWidth="1"/>
-    <col min="2" max="2" width="17.75" customWidth="1"/>
+    <col min="1" max="1" width="13.8984375" customWidth="1"/>
+    <col min="2" max="2" width="17.69921875" customWidth="1"/>
     <col min="3" max="3" width="20.5" customWidth="1"/>
-    <col min="4" max="4" width="58.125" customWidth="1"/>
+    <col min="4" max="4" width="58.09765625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="1">
-        <v>45670</v>
+        <v>45666</v>
       </c>
       <c r="B2" s="2">
         <v>8</v>
@@ -653,8 +641,8 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="7">
-        <v>45672</v>
+      <c r="A3" s="1">
+        <v>45671</v>
       </c>
       <c r="B3" s="2">
         <v>8</v>
@@ -669,7 +657,7 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1">
-        <v>45675</v>
+        <v>45673</v>
       </c>
       <c r="B4" s="2">
         <v>8</v>
@@ -684,7 +672,7 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="1">
-        <v>45691</v>
+        <v>45678</v>
       </c>
       <c r="B5" s="2">
         <v>8</v>
@@ -693,13 +681,13 @@
         <v>5</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="E5" s="2"/>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="1">
-        <v>45692</v>
+        <v>45694</v>
       </c>
       <c r="B6" s="2">
         <v>8</v>
@@ -708,13 +696,13 @@
         <v>5</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="E6" s="2"/>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="1">
-        <v>45693</v>
+        <v>45699</v>
       </c>
       <c r="B7" s="2">
         <v>8</v>
@@ -723,13 +711,13 @@
         <v>5</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="E7" s="2"/>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="1">
-        <v>45694</v>
+        <v>45701</v>
       </c>
       <c r="B8" s="2">
         <v>8</v>
@@ -738,13 +726,13 @@
         <v>5</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="E8" s="2"/>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="1">
-        <v>45702</v>
+        <v>45706</v>
       </c>
       <c r="B9" s="2">
         <v>8</v>
@@ -753,7 +741,7 @@
         <v>5</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="E9" s="2"/>
     </row>
@@ -768,13 +756,13 @@
         <v>5</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E10" s="2"/>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="1">
-        <v>45714</v>
+        <v>45713</v>
       </c>
       <c r="B11" s="2">
         <v>8</v>
@@ -783,7 +771,7 @@
         <v>5</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E11" s="2"/>
     </row>
@@ -798,13 +786,13 @@
         <v>5</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E12" s="2"/>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="1">
-        <v>45716</v>
+        <v>45720</v>
       </c>
       <c r="B13" s="2">
         <v>8</v>
@@ -813,13 +801,13 @@
         <v>5</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E13" s="2"/>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="1">
-        <v>45718</v>
+        <v>45722</v>
       </c>
       <c r="B14" s="2">
         <v>8</v>
@@ -828,12 +816,12 @@
         <v>5</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E14" s="2"/>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="7">
+      <c r="A15" s="1">
         <v>45719</v>
       </c>
       <c r="B15" s="2">
@@ -843,13 +831,13 @@
         <v>5</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E15" s="2"/>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="7">
-        <v>45734</v>
+      <c r="A16" s="1">
+        <v>45727</v>
       </c>
       <c r="B16" s="2">
         <v>8</v>
@@ -858,12 +846,12 @@
         <v>5</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="E16" s="2"/>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="7">
+      <c r="A17" s="1">
         <v>45736</v>
       </c>
       <c r="B17" s="2">
@@ -873,12 +861,12 @@
         <v>5</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="E17" s="2"/>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="7">
+      <c r="A18" s="1">
         <v>45737</v>
       </c>
       <c r="B18" s="2">
@@ -888,76 +876,76 @@
         <v>5</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="E18" s="2"/>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="7">
+      <c r="A19" s="1">
         <v>45744</v>
       </c>
       <c r="B19" s="2">
         <v>2</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>25</v>
+        <v>12</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>22</v>
       </c>
       <c r="E19" s="2"/>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="7">
-        <v>45744</v>
+      <c r="A20" s="1">
+        <v>45748</v>
       </c>
       <c r="B20" s="2">
         <v>2</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>27</v>
+        <v>30</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="E20" s="2"/>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="7">
-        <v>45744</v>
+      <c r="A21" s="1">
+        <v>45750</v>
       </c>
       <c r="B21" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D21" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D21" s="2" t="s">
         <v>29</v>
       </c>
       <c r="E21" s="2"/>
     </row>
     <row r="25" spans="1:5">
-      <c r="A25" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="B25" s="6" t="s">
-        <v>31</v>
+      <c r="A25" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="B27" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="B28" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="B29" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/ProjectPlan.xlsx
+++ b/ProjectPlan.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28508"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28606"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Study\FPTU\SP25\PRN222\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Study\FPTU\SP25\PRN222\Git\PRN222-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F5C25E3-9F52-4722-9397-7002047FE215}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0B040FE-362A-4C13-8A57-ABAE7C304092}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{F37AF37F-3A27-4D8A-A191-52380D4760DF}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="36">
   <si>
     <t>Date</t>
   </si>
@@ -141,6 +141,9 @@
   </si>
   <si>
     <t>Mock Project - Day 16 - Coding</t>
+  </si>
+  <si>
+    <t>Finished</t>
   </si>
 </sst>
 </file>
@@ -595,7 +598,7 @@
   <dimension ref="A1:E29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -637,7 +640,7 @@
         <v>6</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -653,7 +656,9 @@
       <c r="D3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="2"/>
+      <c r="E3" s="2" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1">
@@ -668,7 +673,9 @@
       <c r="D4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="2"/>
+      <c r="E4" s="2" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="1">
@@ -683,7 +690,9 @@
       <c r="D5" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E5" s="2"/>
+      <c r="E5" s="2" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="1">
@@ -698,7 +707,9 @@
       <c r="D6" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E6" s="2"/>
+      <c r="E6" s="2" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="1">
@@ -713,7 +724,9 @@
       <c r="D7" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E7" s="2"/>
+      <c r="E7" s="2" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="1">

--- a/ProjectPlan.xlsx
+++ b/ProjectPlan.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28606"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28620"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Study\FPTU\SP25\PRN222\Git\PRN222-Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop\PRN222\PRN222-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0B040FE-362A-4C13-8A57-ABAE7C304092}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6143DB16-30FD-4186-A94F-8E310CE6342D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{F37AF37F-3A27-4D8A-A191-52380D4760DF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{F37AF37F-3A27-4D8A-A191-52380D4760DF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="35">
   <si>
     <t>Date</t>
   </si>
@@ -59,21 +59,12 @@
     <t>Mock Project - Day 1 - Kick off + Create requirement outline</t>
   </si>
   <si>
-    <t>Started</t>
-  </si>
-  <si>
     <t>Mock Project - Day 2 - Create SRS</t>
   </si>
   <si>
     <t>Mock Project - Day 3 - Review and update SRS</t>
   </si>
   <si>
-    <t>Mock Project - Day 9 - Coding</t>
-  </si>
-  <si>
-    <t>Mock Project - Day 10 - Coding</t>
-  </si>
-  <si>
     <t>08:00-10:00</t>
   </si>
   <si>
@@ -92,18 +83,6 @@
     <t>Đặng Quang Minh</t>
   </si>
   <si>
-    <t>Mock Project - Day 11 - Coding</t>
-  </si>
-  <si>
-    <t>Mock Project - Day 12 - Coding</t>
-  </si>
-  <si>
-    <t>Mock Project - Day 13 - Coding</t>
-  </si>
-  <si>
-    <t>Mock Project - Day 14 - Coding</t>
-  </si>
-  <si>
     <t>Mock Project - Day 18 - IT + Create Test Report</t>
   </si>
   <si>
@@ -134,16 +113,34 @@
     <t>15:00-17:15</t>
   </si>
   <si>
-    <t>Mock Project - Day 15 - Coding</t>
-  </si>
-  <si>
     <t>Mock Project - Day 17 - Review code + UT</t>
   </si>
   <si>
-    <t>Mock Project - Day 16 - Coding</t>
-  </si>
-  <si>
     <t>Finished</t>
+  </si>
+  <si>
+    <t>Mock Project - Day 9 - Coding-Front end</t>
+  </si>
+  <si>
+    <t>Starting</t>
+  </si>
+  <si>
+    <t>PIC</t>
+  </si>
+  <si>
+    <t>ADO</t>
+  </si>
+  <si>
+    <t>Mock Project - Day 10 - Coding module 1</t>
+  </si>
+  <si>
+    <t>Mock Project - Day 11 - Coding module 2</t>
+  </si>
+  <si>
+    <t>Mock Project - Day 12 - Coding module 3</t>
+  </si>
+  <si>
+    <t>AnNNH,PhuongPH,MinhDQ</t>
   </si>
 </sst>
 </file>
@@ -153,18 +150,18 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="ddd\,\ dd\-mmm"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -241,7 +238,7 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
@@ -257,6 +254,9 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -595,21 +595,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39C9BE08-3ED2-4323-9945-AFBBED6A5948}">
-  <dimension ref="A1:E29"/>
+  <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.8984375" customWidth="1"/>
-    <col min="2" max="2" width="17.69921875" customWidth="1"/>
-    <col min="3" max="3" width="20.5" customWidth="1"/>
-    <col min="4" max="4" width="58.09765625" customWidth="1"/>
+    <col min="1" max="1" width="13.85546875" customWidth="1"/>
+    <col min="2" max="2" width="17.7109375" customWidth="1"/>
+    <col min="3" max="3" width="20.42578125" customWidth="1"/>
+    <col min="4" max="4" width="58.140625" customWidth="1"/>
+    <col min="6" max="6" width="26" customWidth="1"/>
+    <col min="7" max="7" width="26.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -625,8 +627,14 @@
       <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>45666</v>
       </c>
@@ -640,10 +648,16 @@
         <v>6</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>26</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>45671</v>
       </c>
@@ -654,13 +668,19 @@
         <v>5</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>26</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>45673</v>
       </c>
@@ -671,13 +691,19 @@
         <v>5</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>26</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>45678</v>
       </c>
@@ -688,13 +714,19 @@
         <v>5</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+        <v>26</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>45694</v>
       </c>
@@ -705,13 +737,19 @@
         <v>5</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>26</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>45699</v>
       </c>
@@ -722,13 +760,19 @@
         <v>5</v>
       </c>
       <c r="D7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E7" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+      <c r="F7" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>45701</v>
       </c>
@@ -739,11 +783,19 @@
         <v>5</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E8" s="2"/>
-    </row>
-    <row r="9" spans="1:5">
+        <v>20</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>45706</v>
       </c>
@@ -754,211 +806,201 @@
         <v>5</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E9" s="2"/>
-    </row>
-    <row r="10" spans="1:5">
+        <v>21</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>45708</v>
       </c>
-      <c r="B10" s="2">
-        <v>8</v>
-      </c>
+      <c r="B10" s="2"/>
       <c r="C10" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>45714</v>
+      </c>
+      <c r="B11" s="2"/>
+      <c r="C11" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>45718</v>
+      </c>
+      <c r="B12" s="2"/>
+      <c r="C12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E12" s="2"/>
+      <c r="F12" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>45724</v>
+      </c>
+      <c r="B13" s="2"/>
+      <c r="C13" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E13" s="2"/>
+      <c r="F13" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>45730</v>
+      </c>
+      <c r="B14" s="2"/>
+      <c r="C14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14" s="2"/>
+      <c r="F14" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>45732</v>
+      </c>
+      <c r="B15" s="2">
+        <v>2</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E15" s="2"/>
+      <c r="F15" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>45738</v>
+      </c>
+      <c r="B16" s="2">
+        <v>2</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E16" s="2"/>
+      <c r="F16" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>45740</v>
+      </c>
+      <c r="B17" s="2">
+        <v>2</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E17" s="2"/>
+      <c r="F17" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E10" s="2"/>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="1">
-        <v>45713</v>
-      </c>
-      <c r="B11" s="2">
-        <v>8</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D11" s="2" t="s">
+      <c r="B21" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="2"/>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="1">
-        <v>45715</v>
-      </c>
-      <c r="B12" s="2">
-        <v>8</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E12" s="2"/>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="1">
-        <v>45720</v>
-      </c>
-      <c r="B13" s="2">
-        <v>8</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E13" s="2"/>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="1">
-        <v>45722</v>
-      </c>
-      <c r="B14" s="2">
-        <v>8</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E14" s="2"/>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="1">
-        <v>45719</v>
-      </c>
-      <c r="B15" s="2">
-        <v>8</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E15" s="2"/>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="1">
-        <v>45727</v>
-      </c>
-      <c r="B16" s="2">
-        <v>8</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E16" s="2"/>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="1">
-        <v>45736</v>
-      </c>
-      <c r="B17" s="2">
-        <v>8</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E17" s="2"/>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="1">
-        <v>45737</v>
-      </c>
-      <c r="B18" s="2">
-        <v>8</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E18" s="2"/>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="1">
-        <v>45744</v>
-      </c>
-      <c r="B19" s="2">
-        <v>2</v>
-      </c>
-      <c r="C19" s="3" t="s">
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
         <v>12</v>
       </c>
-      <c r="D19" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E19" s="2"/>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="1">
-        <v>45748</v>
-      </c>
-      <c r="B20" s="2">
-        <v>2</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E20" s="2"/>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="1">
-        <v>45750</v>
-      </c>
-      <c r="B21" s="2">
-        <v>2</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E21" s="2"/>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25" s="6" t="s">
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
         <v>13</v>
       </c>
-      <c r="B25" s="5" t="s">
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
         <v>14</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
-      <c r="B27" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
-      <c r="B28" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
-      <c r="B29" t="s">
-        <v>17</v>
       </c>
     </row>
   </sheetData>
